--- a/documents/liste_stockages.xlsx
+++ b/documents/liste_stockages.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille1!$A$1:$F$27</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Désignation</t>
   </si>
@@ -171,18 +174,30 @@
   </si>
   <si>
     <t>d008</t>
+  </si>
+  <si>
+    <t>en cours</t>
+  </si>
+  <si>
+    <t>d009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,9 +220,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -500,43 +518,55 @@
     <col min="3" max="3" width="82.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>274</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -544,157 +574,169 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>320</v>
+      </c>
+      <c r="E5">
+        <v>286</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>3000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
         <v>500</v>
       </c>
-      <c r="E9">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>320</v>
-      </c>
-      <c r="E10">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <v>3000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>500</v>
-      </c>
-      <c r="E13">
+      <c r="E14">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>500</v>
-      </c>
-      <c r="E16">
-        <v>274</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -702,7 +744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -710,7 +752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -721,7 +763,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -732,7 +774,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -740,7 +782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -751,7 +793,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -759,7 +801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -770,7 +812,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -778,7 +820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -786,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -795,8 +837,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F27">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="ok"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:F27">
+    <sortCondition ref="B2:B27"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/documents/liste_stockages.xlsx
+++ b/documents/liste_stockages.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille1!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille1!$A$2:$D$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Désignation</t>
   </si>
@@ -35,36 +35,12 @@
     <t>Préfixe</t>
   </si>
   <si>
-    <t>Commentaire</t>
-  </si>
-  <si>
-    <t>Capacité</t>
-  </si>
-  <si>
-    <t>Reste</t>
-  </si>
-  <si>
-    <t>statut</t>
-  </si>
-  <si>
-    <t>????? SEAGATE EXPANSION TO</t>
-  </si>
-  <si>
-    <t>à côté classeur rouge</t>
-  </si>
-  <si>
     <t>Azraël</t>
   </si>
   <si>
     <t>d001</t>
   </si>
   <si>
-    <t>serveur de stockage BNR comprenant les répertoires BNR_SAUV, BNR_TAMPON, BNR_VERIF</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>DDE_2007I</t>
   </si>
   <si>
@@ -74,21 +50,12 @@
     <t>d003</t>
   </si>
   <si>
-    <t>Num à trier, AMC_FONTENELLE, …</t>
-  </si>
-  <si>
     <t>DDE_2008II</t>
   </si>
   <si>
-    <t>24,8</t>
-  </si>
-  <si>
     <t>DDE_2009I</t>
   </si>
   <si>
-    <t>AMR_CIM_CPE…</t>
-  </si>
-  <si>
     <t>DDE_2010_I</t>
   </si>
   <si>
@@ -107,9 +74,6 @@
     <t>DDE_2012II</t>
   </si>
   <si>
-    <t>95,5</t>
-  </si>
-  <si>
     <t>DDE_2013I</t>
   </si>
   <si>
@@ -128,9 +92,6 @@
     <t>d002</t>
   </si>
   <si>
-    <t>MED_MS, CADN 2020</t>
-  </si>
-  <si>
     <t>Roubaix livraison D1 D2 JPG</t>
   </si>
   <si>
@@ -176,10 +137,88 @@
     <t>d008</t>
   </si>
   <si>
-    <t>en cours</t>
-  </si>
-  <si>
     <t>d009</t>
+  </si>
+  <si>
+    <t>d010</t>
+  </si>
+  <si>
+    <t>d011</t>
+  </si>
+  <si>
+    <t>d012</t>
+  </si>
+  <si>
+    <t>d013</t>
+  </si>
+  <si>
+    <t>DDE_2021_I</t>
+  </si>
+  <si>
+    <t>d014</t>
+  </si>
+  <si>
+    <t>d015</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d016</t>
+  </si>
+  <si>
+    <t>d017</t>
+  </si>
+  <si>
+    <t>d018</t>
+  </si>
+  <si>
+    <t>d019</t>
+  </si>
+  <si>
+    <t>d020</t>
+  </si>
+  <si>
+    <t>d021</t>
+  </si>
+  <si>
+    <t>Roubaix livraison 5 4 décembre 2010</t>
+  </si>
+  <si>
+    <t>d022</t>
+  </si>
+  <si>
+    <t>d023</t>
+  </si>
+  <si>
+    <t>d024</t>
+  </si>
+  <si>
+    <t>d025</t>
+  </si>
+  <si>
+    <t>d026</t>
+  </si>
+  <si>
+    <t>d027</t>
+  </si>
+  <si>
+    <t>Contenu</t>
+  </si>
+  <si>
+    <t>ok pour noms de fichier ; ok pour md5</t>
+  </si>
+  <si>
+    <t>ok pour noms de fichier ; ko pour md5 (manque de temps)</t>
+  </si>
+  <si>
+    <t>résultat analyse</t>
+  </si>
+  <si>
+    <t>ko (montage impossible)</t>
+  </si>
+  <si>
+    <t>ok pour noms de fichier ; ko pour md5 (pb lecture ?)</t>
   </si>
 </sst>
 </file>
@@ -200,15 +239,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -216,15 +273,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,350 +590,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>500</v>
-      </c>
-      <c r="E3">
-        <v>274</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>320</v>
-      </c>
-      <c r="E5">
-        <v>286</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-      <c r="E6">
-        <v>207</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>320</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>3000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>400</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>500</v>
-      </c>
-      <c r="E14">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="ok"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:F27">
-    <sortCondition ref="B2:B27"/>
+  <autoFilter ref="A2:D28"/>
+  <sortState ref="A2:D28">
+    <sortCondition ref="B2:B28"/>
+    <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
